--- a/Mifos Automation Excels/Client/4383-ACTGRP-MEET-WEEKLYonFRI-SUBMITJLG-SYNK-DISP+REPAYwithMEE-Weeklyloanevery1weeks-Disburse-ModifyfuturMeet-to15April2015-Makerepayment-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/4383-ACTGRP-MEET-WEEKLYonFRI-SUBMITJLG-SYNK-DISP+REPAYwithMEE-Weeklyloanevery1weeks-Disburse-ModifyfuturMeet-to15April2015-Makerepayment-Newcreateloan1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="85">
   <si>
     <t>#</t>
   </si>
@@ -266,10 +266,13 @@
     <t>repaymenttransactiondate</t>
   </si>
   <si>
-    <t>Groupq4383</t>
-  </si>
-  <si>
     <t>NavigateToLoan</t>
+  </si>
+  <si>
+    <t>clickonsubmit2</t>
+  </si>
+  <si>
+    <t>Groupa4383</t>
   </si>
 </sst>
 </file>
@@ -279,7 +282,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,6 +306,14 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -382,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -424,6 +435,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -726,10 +740,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,7 +938,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>51</v>
@@ -944,6 +958,14 @@
       </c>
       <c r="B26" s="22">
         <v>42076</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -957,7 +979,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,17 +1018,17 @@
         <v>10000</v>
       </c>
       <c r="B2" s="7">
-        <v>0</v>
+        <v>822.81</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7">
         <v>0</v>
       </c>
-      <c r="E2" s="9">
-        <v>10000</v>
+      <c r="E2" s="10">
+        <v>9177.19</v>
       </c>
       <c r="F2" s="10">
-        <v>2474.14</v>
+        <v>1651.33</v>
       </c>
       <c r="G2"/>
     </row>
@@ -1015,7 +1037,7 @@
         <v>150.63999999999999</v>
       </c>
       <c r="B3" s="7">
-        <v>0</v>
+        <v>23.08</v>
       </c>
       <c r="C3" s="7">
         <v>0</v>
@@ -1024,10 +1046,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="7">
-        <v>150.63999999999999</v>
+        <v>127.56</v>
       </c>
       <c r="F3" s="7">
-        <v>63.53</v>
+        <v>40.450000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1079,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,7 +1110,7 @@
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
@@ -1191,8 +1213,10 @@
       <c r="C3" s="8">
         <v>42076</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="D3" s="8">
+        <v>42076</v>
+      </c>
+      <c r="E3" s="23"/>
       <c r="F3" s="7">
         <v>822.81</v>
       </c>
@@ -1212,7 +1236,7 @@
         <v>845.89</v>
       </c>
       <c r="L3" s="7">
-        <v>0</v>
+        <v>845.89</v>
       </c>
       <c r="M3" s="7">
         <v>0</v>
@@ -1221,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="7">
-        <v>845.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1799,8 +1823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1822,7 +1846,7 @@
         <v>34</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
